--- a/data/vgp_database/Bishop_tuff.xlsx
+++ b/data/vgp_database/Bishop_tuff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D168C049-9C62-AF41-BF1C-41697C905A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58938FB7-DA60-9C41-AD1B-86006240539C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="680" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="127">
   <si>
     <t>Name:</t>
   </si>
@@ -417,147 +417,6 @@
   </si>
   <si>
     <t>10.1007/s004450050129:10.1130/G24017A.1</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.2</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.3</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.4</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.5</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.6</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.7</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.8</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.9</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.10</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.11</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.12</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.13</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.14</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.15</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.16</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.17</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.18</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.19</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.20</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.21</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.22</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.23</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.24</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.25</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.26</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.27</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.28</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.29</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.30</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.31</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.32</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.33</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.34</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.35</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.36</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.37</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.38</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.39</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.40</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.41</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.42</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.43</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.44</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.45</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.46</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.47</t>
-  </si>
-  <si>
-    <t>10.1007/s004450050129:10.1130/G24017A.48</t>
   </si>
 </sst>
 </file>
@@ -954,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AP9" sqref="AP9:AP56"/>
+    <sheetView tabSelected="1" topLeftCell="AC31" workbookViewId="0">
+      <selection activeCell="AP10" sqref="AP10:AP56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1786,8 +1645,9 @@
         <v>67</v>
       </c>
       <c r="AO10" s="18"/>
-      <c r="AP10" s="18" t="s">
-        <v>127</v>
+      <c r="AP10" s="18" t="str">
+        <f>AP9</f>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ10" s="18"/>
     </row>
@@ -1893,8 +1753,9 @@
         <v>67</v>
       </c>
       <c r="AO11" s="18"/>
-      <c r="AP11" s="18" t="s">
-        <v>128</v>
+      <c r="AP11" s="18" t="str">
+        <f t="shared" ref="AP11:AP56" si="0">AP10</f>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ11" s="18"/>
     </row>
@@ -1999,8 +1860,9 @@
       <c r="AN12" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP12" s="18" t="s">
-        <v>129</v>
+      <c r="AP12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ12" s="21"/>
     </row>
@@ -2105,8 +1967,9 @@
       <c r="AN13" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP13" s="18" t="s">
-        <v>130</v>
+      <c r="AP13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ13" s="21"/>
     </row>
@@ -2211,8 +2074,9 @@
       <c r="AN14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP14" s="18" t="s">
-        <v>131</v>
+      <c r="AP14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ14" s="22"/>
     </row>
@@ -2317,8 +2181,9 @@
       <c r="AN15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP15" s="18" t="s">
-        <v>132</v>
+      <c r="AP15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ15" s="22"/>
     </row>
@@ -2423,8 +2288,9 @@
       <c r="AN16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP16" s="18" t="s">
-        <v>133</v>
+      <c r="AP16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ16" s="22"/>
     </row>
@@ -2529,8 +2395,9 @@
       <c r="AN17" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP17" s="18" t="s">
-        <v>134</v>
+      <c r="AP17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ17" s="22"/>
     </row>
@@ -2635,8 +2502,9 @@
       <c r="AN18" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP18" s="18" t="s">
-        <v>135</v>
+      <c r="AP18" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ18" s="22"/>
     </row>
@@ -2741,8 +2609,9 @@
       <c r="AN19" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP19" s="18" t="s">
-        <v>136</v>
+      <c r="AP19" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ19" s="22"/>
     </row>
@@ -2847,8 +2716,9 @@
       <c r="AN20" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP20" s="18" t="s">
-        <v>137</v>
+      <c r="AP20" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ20" s="22"/>
     </row>
@@ -2953,8 +2823,9 @@
       <c r="AN21" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP21" s="18" t="s">
-        <v>138</v>
+      <c r="AP21" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ21" s="21"/>
     </row>
@@ -3059,8 +2930,9 @@
       <c r="AN22" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP22" s="18" t="s">
-        <v>139</v>
+      <c r="AP22" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ22" s="21"/>
     </row>
@@ -3165,8 +3037,9 @@
       <c r="AN23" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP23" s="18" t="s">
-        <v>140</v>
+      <c r="AP23" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ23" s="21"/>
     </row>
@@ -3271,8 +3144,9 @@
       <c r="AN24" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP24" s="18" t="s">
-        <v>141</v>
+      <c r="AP24" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ24" s="21"/>
     </row>
@@ -3377,8 +3251,9 @@
       <c r="AN25" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP25" s="18" t="s">
-        <v>142</v>
+      <c r="AP25" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ25" s="21"/>
     </row>
@@ -3483,8 +3358,9 @@
       <c r="AN26" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP26" s="18" t="s">
-        <v>143</v>
+      <c r="AP26" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ26" s="21"/>
     </row>
@@ -3589,8 +3465,9 @@
       <c r="AN27" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP27" s="18" t="s">
-        <v>144</v>
+      <c r="AP27" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ27" s="21"/>
     </row>
@@ -3695,8 +3572,9 @@
       <c r="AN28" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP28" s="18" t="s">
-        <v>145</v>
+      <c r="AP28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ28" s="21"/>
     </row>
@@ -3801,8 +3679,9 @@
       <c r="AN29" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP29" s="18" t="s">
-        <v>146</v>
+      <c r="AP29" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ29" s="21"/>
     </row>
@@ -3907,8 +3786,9 @@
       <c r="AN30" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP30" s="18" t="s">
-        <v>147</v>
+      <c r="AP30" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ30" s="21"/>
     </row>
@@ -4013,8 +3893,9 @@
       <c r="AN31" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP31" s="18" t="s">
-        <v>148</v>
+      <c r="AP31" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ31" s="21"/>
     </row>
@@ -4119,8 +4000,9 @@
       <c r="AN32" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP32" s="18" t="s">
-        <v>149</v>
+      <c r="AP32" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ32" s="21"/>
     </row>
@@ -4225,8 +4107,9 @@
       <c r="AN33" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP33" s="18" t="s">
-        <v>150</v>
+      <c r="AP33" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ33" s="21"/>
     </row>
@@ -4331,8 +4214,9 @@
       <c r="AN34" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP34" s="18" t="s">
-        <v>151</v>
+      <c r="AP34" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ34" s="21"/>
     </row>
@@ -4437,8 +4321,9 @@
       <c r="AN35" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP35" s="18" t="s">
-        <v>152</v>
+      <c r="AP35" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ35" s="21"/>
     </row>
@@ -4543,8 +4428,9 @@
       <c r="AN36" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP36" s="18" t="s">
-        <v>153</v>
+      <c r="AP36" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ36" s="21"/>
     </row>
@@ -4649,8 +4535,9 @@
       <c r="AN37" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP37" s="18" t="s">
-        <v>154</v>
+      <c r="AP37" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ37" s="21"/>
     </row>
@@ -4755,8 +4642,9 @@
       <c r="AN38" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP38" s="18" t="s">
-        <v>155</v>
+      <c r="AP38" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ38" s="21"/>
     </row>
@@ -4861,8 +4749,9 @@
       <c r="AN39" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP39" s="18" t="s">
-        <v>156</v>
+      <c r="AP39" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ39" s="21"/>
     </row>
@@ -4967,8 +4856,9 @@
       <c r="AN40" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP40" s="18" t="s">
-        <v>157</v>
+      <c r="AP40" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ40" s="21"/>
     </row>
@@ -5073,8 +4963,9 @@
       <c r="AN41" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP41" s="18" t="s">
-        <v>158</v>
+      <c r="AP41" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ41" s="21"/>
     </row>
@@ -5179,8 +5070,9 @@
       <c r="AN42" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP42" s="18" t="s">
-        <v>159</v>
+      <c r="AP42" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ42" s="21"/>
     </row>
@@ -5285,8 +5177,9 @@
       <c r="AN43" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP43" s="18" t="s">
-        <v>160</v>
+      <c r="AP43" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ43" s="21"/>
     </row>
@@ -5391,8 +5284,9 @@
       <c r="AN44" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP44" s="18" t="s">
-        <v>161</v>
+      <c r="AP44" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ44" s="21"/>
     </row>
@@ -5497,8 +5391,9 @@
       <c r="AN45" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP45" s="18" t="s">
-        <v>162</v>
+      <c r="AP45" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ45" s="21"/>
     </row>
@@ -5603,8 +5498,9 @@
       <c r="AN46" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP46" s="18" t="s">
-        <v>163</v>
+      <c r="AP46" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ46" s="21"/>
     </row>
@@ -5709,8 +5605,9 @@
       <c r="AN47" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP47" s="18" t="s">
-        <v>164</v>
+      <c r="AP47" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ47" s="21"/>
     </row>
@@ -5815,8 +5712,9 @@
       <c r="AN48" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP48" s="18" t="s">
-        <v>165</v>
+      <c r="AP48" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ48" s="21"/>
     </row>
@@ -5921,8 +5819,9 @@
       <c r="AN49" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP49" s="18" t="s">
-        <v>166</v>
+      <c r="AP49" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ49" s="21"/>
     </row>
@@ -6027,8 +5926,9 @@
       <c r="AN50" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP50" s="18" t="s">
-        <v>167</v>
+      <c r="AP50" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ50" s="21"/>
     </row>
@@ -6133,8 +6033,9 @@
       <c r="AN51" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP51" s="18" t="s">
-        <v>168</v>
+      <c r="AP51" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ51" s="21"/>
     </row>
@@ -6239,8 +6140,9 @@
       <c r="AN52" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP52" s="18" t="s">
-        <v>169</v>
+      <c r="AP52" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ52" s="21"/>
     </row>
@@ -6345,8 +6247,9 @@
       <c r="AN53" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP53" s="18" t="s">
-        <v>170</v>
+      <c r="AP53" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ53" s="21"/>
     </row>
@@ -6451,8 +6354,9 @@
       <c r="AN54" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP54" s="18" t="s">
-        <v>171</v>
+      <c r="AP54" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ54" s="21"/>
     </row>
@@ -6555,8 +6459,9 @@
       <c r="AN55" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP55" s="18" t="s">
-        <v>172</v>
+      <c r="AP55" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ55" s="21"/>
     </row>
@@ -6659,8 +6564,9 @@
       <c r="AN56" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AP56" s="18" t="s">
-        <v>173</v>
+      <c r="AP56" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1007/s004450050129:10.1130/G24017A.1</v>
       </c>
       <c r="AQ56" s="21"/>
     </row>
